--- a/forEclipse/workspace/test_modified.xlsx
+++ b/forEclipse/workspace/test_modified.xlsx
@@ -1147,14 +1147,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.75" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="10.375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="9" max="10" customWidth="true" width="10.375" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="11.5" collapsed="false"/>
+    <col min="1" max="1" width="10.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="11.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
